--- a/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/Table16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb154/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb154/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E030E96-9A55-B04E-A485-EB56A9EE4537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754A5CE-1058-EC4F-877C-3BDA8DAAD9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21240" yWindow="460" windowWidth="28060" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2">
         <v>68383576</v>
